--- a/definitions/customer.xlsx
+++ b/definitions/customer.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlovargas/Desktop/synthetic_data/definitions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D907E7CC-CFCC-CC4E-8276-EE4910CD54CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$76</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="148">
   <si>
     <t>TABLE_NAME</t>
   </si>
@@ -281,27 +293,253 @@
   </si>
   <si>
     <t>E_MAIL</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>custom function that generates a customer number following SAP’s auto-generation pattern. In SAP, this value is created automatically during data migration.</t>
+  </si>
+  <si>
+    <t>The default assignment will be YN02, but it’s pending confirmation whether BP02 should also be included.</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default assignment will be CUST</t>
+  </si>
+  <si>
+    <t>Generates a fake company name using Faker.</t>
+  </si>
+  <si>
+    <t>Generates a fake first name using Faker.</t>
+  </si>
+  <si>
+    <t>Generates a fake last name using Faker.</t>
+  </si>
+  <si>
+    <t>Same values as KUNNR (According to the Mapping)</t>
+  </si>
+  <si>
+    <t>Is this out of scoope? "Not used today.  Out of Scope. Used in DE, not applicable  for US CA."</t>
+  </si>
+  <si>
+    <t>Leave this field blank for now. Pending confirmation on whether ‘X’ should also be included as a possible value.</t>
+  </si>
+  <si>
+    <t>Is this out of scoope? "Not applicable for US &amp; CA"</t>
+  </si>
+  <si>
+    <t>Custom function selects a random street address from a predefined list of addresses in a JSON file.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Custom function uses </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>STREET</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to look up predefined addresses in a JSON file and returns the corresponding value for this column.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Custom function that generates phone numbers using a Faker function, based on the country as a reference.
+2. Based on a configurable probability, it may either generate a phone number or leave it as null.</t>
+  </si>
+  <si>
+    <t>1. Custom function that generates a fake supplier company email based on the company name, and the person's first and last name. It creates a random username.
+2. Based on a configurable probability, it may either generate a fake email or leave it as null.</t>
+  </si>
+  <si>
+    <t>Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_EQUI table.</t>
+  </si>
+  <si>
+    <t>Custom function that simulates a foreign key (FK) relationship. It makes reference to the S_CUST_GEN table.</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values are: Default Value US: NT30, Default Value CA: NT30</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values are:  For US if 1G-2G Cust  then Default to  1710, For Canada Cust then Default toi 2930</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is D</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: 000</t>
+  </si>
+  <si>
+    <t>Custom function that assigns a random value based on the predefined values: BUP001 - Dun &amp; Bradstreet Number, YDNB01 - DNB Global, YDNB02 - DNB Domestic, YDNB03 - DNB Parent, YDNB04 - DNB Headquarters</t>
+  </si>
+  <si>
+    <t>Custom function that creates a Identification Number</t>
+  </si>
+  <si>
+    <t>Custom function that creates a fake ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Custom function that assigns the same first name defined in s_cust_gen.</t>
+  </si>
+  <si>
+    <t>Custom function that assigns the same last name defined in s_cust_gen.</t>
+  </si>
+  <si>
+    <t>Custom function that assigns the same mobile  defined in s_cust_gen.</t>
+  </si>
+  <si>
+    <t>Custom function that assigns the same email  defined in s_cust_gen.</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: 0001</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: .</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: EXW</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: blank</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: 9</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values are US = US18, CA = CA01</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: X</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: Y1</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: 02</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: S1</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: C1</t>
+  </si>
+  <si>
+    <t>Custom function that assigns 'USD' if the Sales Org is 1710 and 'CAD' to 2930</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: 01</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: 10</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default 'EN'</t>
+  </si>
+  <si>
+    <t>Custom function that assigns 1710 if the country key is US and 2930 if it is CA</t>
+  </si>
+  <si>
+    <t>According to Vendor Mapping: Use default '10'</t>
+  </si>
+  <si>
+    <t>Custom function that generates a fake Employee ID.</t>
+  </si>
+  <si>
+    <t>Same value as customer ID</t>
+  </si>
+  <si>
+    <t>Custom function that randomly assigns the S4H expected values: 01 (Electronic products), 02 (Consumables), 03 (Services)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Default to US or CA based on Sales Org </t>
+  </si>
+  <si>
+    <t>Defaults this to  UTXJ for US, for Canada - CTXJ based on Sales Org</t>
+  </si>
+  <si>
+    <t>A custom function that simulates and assigns a value based on the following mapping rule: “If C360 has the value ‘Tax exemption indicator’, then assign ‘0’; otherwise, assign ‘1’.”</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Custom that assigns a Tax Number Category (Clarification Needed)</t>
+  </si>
+  <si>
+    <t>Custom that generates a Tax Number (CLARIFICATION NEEDED)</t>
+  </si>
+  <si>
+    <t>Custom function that assigns values based on the country key.  If country key is 'US' then 1710 and If Country Key is 'CA' then 2930</t>
+  </si>
+  <si>
+    <t>According to the mapping, the default values is: Raju/Raghu-15_04_2025 : Default to '10'</t>
+  </si>
+  <si>
+    <t>As the country key is US or CA, the custom function will assign:01 – Domestic Revenues Customers with Address Country: US and 01 - Domestic Revenues  - Customers with Address Country : CA</t>
+  </si>
+  <si>
+    <t>Raju/Raghu-15_04_2025: Default value '12100000'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,39 +547,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -531,24 +787,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.75"/>
-    <col customWidth="1" min="2" max="2" width="14.0"/>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="6" max="6" width="120.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,8 +826,11 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -578,8 +843,11 @@
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -592,8 +860,11 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="F3" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -606,8 +877,11 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="F4" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -620,8 +894,11 @@
       <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="F5" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -634,8 +911,11 @@
       <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="F6" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -648,8 +928,11 @@
       <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="F7" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -662,8 +945,11 @@
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -676,8 +962,11 @@
       <c r="D9" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="F9" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -690,8 +979,11 @@
       <c r="D10" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="F10" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,8 +996,11 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="F11" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
@@ -718,8 +1013,11 @@
       <c r="D12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="F12" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
@@ -732,8 +1030,11 @@
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="F13" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -746,8 +1047,11 @@
       <c r="D14" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="F14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -760,8 +1064,11 @@
       <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="F15" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -774,8 +1081,11 @@
       <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="F16" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,8 +1098,11 @@
       <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="F17" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
@@ -802,8 +1115,11 @@
       <c r="D18" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19">
+      <c r="F18" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +1132,11 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20">
+      <c r="F19" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,8 +1149,11 @@
       <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21">
+      <c r="F20" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -844,8 +1166,11 @@
       <c r="D21" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22">
+      <c r="F21" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +1183,11 @@
       <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23">
+      <c r="F22" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -872,8 +1200,11 @@
       <c r="D23" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24">
+      <c r="F23" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -886,8 +1217,11 @@
       <c r="D24" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25">
+      <c r="F24" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -900,8 +1234,11 @@
       <c r="D25" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="26">
+      <c r="F25" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -914,8 +1251,11 @@
       <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27">
+      <c r="F26" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -928,8 +1268,11 @@
       <c r="D27" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="F27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -942,8 +1285,11 @@
       <c r="D28" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="F28" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -956,8 +1302,11 @@
       <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30">
+      <c r="F29" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -970,8 +1319,11 @@
       <c r="D30" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="31">
+      <c r="F30" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -984,8 +1336,11 @@
       <c r="D31" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32">
+      <c r="F31" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -998,8 +1353,11 @@
       <c r="D32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="F32" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
@@ -1012,8 +1370,11 @@
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34">
+      <c r="F33" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>36</v>
       </c>
@@ -1026,8 +1387,11 @@
       <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35">
+      <c r="F34" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -1040,8 +1404,11 @@
       <c r="D35" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36">
+      <c r="F35" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -1054,8 +1421,11 @@
       <c r="D36" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37">
+      <c r="F36" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -1068,8 +1438,11 @@
       <c r="D37" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38">
+      <c r="F37" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -1082,8 +1455,11 @@
       <c r="D38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39">
+      <c r="F38" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -1096,8 +1472,11 @@
       <c r="D39" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40">
+      <c r="F39" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -1110,8 +1489,11 @@
       <c r="D40" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41">
+      <c r="F40" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -1124,8 +1506,11 @@
       <c r="D41" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="F41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -1138,8 +1523,11 @@
       <c r="D42" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1152,8 +1540,11 @@
       <c r="D43" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="F43" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>61</v>
       </c>
@@ -1166,8 +1557,11 @@
       <c r="D44" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45">
+      <c r="F44" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
@@ -1180,8 +1574,11 @@
       <c r="D45" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46">
+      <c r="F45" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>61</v>
       </c>
@@ -1194,8 +1591,11 @@
       <c r="D46" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47">
+      <c r="F46" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
@@ -1208,8 +1608,11 @@
       <c r="D47" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="F47" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
@@ -1222,8 +1625,11 @@
       <c r="D48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49">
+      <c r="F48" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
@@ -1236,8 +1642,11 @@
       <c r="D49" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50">
+      <c r="F49" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>61</v>
       </c>
@@ -1250,8 +1659,11 @@
       <c r="D50" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="51">
+      <c r="F50" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>66</v>
       </c>
@@ -1264,8 +1676,11 @@
       <c r="D51" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52">
+      <c r="F51" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>66</v>
       </c>
@@ -1278,8 +1693,11 @@
       <c r="D52" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53">
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
@@ -1292,8 +1710,11 @@
       <c r="D53" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54">
+      <c r="F53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
@@ -1306,8 +1727,11 @@
       <c r="D54" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55">
+      <c r="F54" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>66</v>
       </c>
@@ -1320,8 +1744,11 @@
       <c r="D55" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="F55" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -1334,8 +1761,11 @@
       <c r="D56" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57">
+      <c r="F56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>66</v>
       </c>
@@ -1348,8 +1778,11 @@
       <c r="D57" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58">
+      <c r="F57" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>72</v>
       </c>
@@ -1362,8 +1795,11 @@
       <c r="D58" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59">
+      <c r="F58" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>73</v>
       </c>
@@ -1376,8 +1812,11 @@
       <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60">
+      <c r="F59" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>74</v>
       </c>
@@ -1390,8 +1829,11 @@
       <c r="D60" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61">
+      <c r="F60" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>75</v>
       </c>
@@ -1404,8 +1846,11 @@
       <c r="D61" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62">
+      <c r="F61" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
@@ -1418,8 +1863,11 @@
       <c r="D62" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="F62" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
@@ -1432,8 +1880,11 @@
       <c r="D63" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="F63" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>75</v>
       </c>
@@ -1446,8 +1897,11 @@
       <c r="D64" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="F64" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>79</v>
       </c>
@@ -1460,8 +1914,11 @@
       <c r="D65" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="F65" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
@@ -1474,8 +1931,11 @@
       <c r="D66" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="F66" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
@@ -1488,8 +1948,11 @@
       <c r="D67" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="F67" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>82</v>
       </c>
@@ -1502,8 +1965,11 @@
       <c r="D68" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69">
+      <c r="F68" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>82</v>
       </c>
@@ -1516,8 +1982,11 @@
       <c r="D69" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70">
+      <c r="F69" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
@@ -1530,8 +1999,11 @@
       <c r="D70" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="F70" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>84</v>
       </c>
@@ -1544,8 +2016,11 @@
       <c r="D71" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="F71" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
@@ -1558,8 +2033,11 @@
       <c r="D72" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73">
+      <c r="F72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
@@ -1572,8 +2050,11 @@
       <c r="D73" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="74">
+      <c r="F73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -1586,8 +2067,11 @@
       <c r="D74" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="75">
+      <c r="F74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>84</v>
       </c>
@@ -1600,8 +2084,11 @@
       <c r="D75" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="76">
+      <c r="F75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
@@ -1614,8 +2101,13 @@
       <c r="D76" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="F76" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:F76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>